--- a/data/trans_orig/Q5413-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5413-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC32DFFD-AC42-4002-B9F5-0319B0F83423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D44F63D4-1774-4279-B9DA-7A1A8D08700B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A96F2720-002C-4274-9C60-E09D0A586194}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{92818D22-640B-489C-BE89-C3EA3000DFC4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="358">
   <si>
     <t>Población según si es capaz de vestirse solo en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,1012 +77,1042 @@
     <t>1,24%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
   </si>
   <si>
     <t>2,26%</t>
   </si>
   <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>Con ayuda</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
     <t>1,21%</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>Con ayuda</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
   </si>
   <si>
     <t>5,82%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
   </si>
   <si>
     <t>6,06%</t>
   </si>
   <si>
-    <t>7,1%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
   </si>
   <si>
     <t>94,49%</t>
   </si>
   <si>
-    <t>95,81%</t>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
   </si>
   <si>
     <t>90,45%</t>
   </si>
   <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
   </si>
   <si>
     <t>92,09%</t>
   </si>
   <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
+    <t>93,64%</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E70DBA-8D5D-4032-A020-71A347A0E71F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D056C0C6-48D6-46C1-8EAF-89E4CAD07EB2}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1732,7 +1762,7 @@
         <v>548</v>
       </c>
       <c r="I6" s="7">
-        <v>560275</v>
+        <v>560274</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1783,7 +1813,7 @@
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2293,7 +2323,7 @@
         <v>77</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -2302,13 +2332,13 @@
         <v>15109</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -2317,13 +2347,13 @@
         <v>29718</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,13 +2368,13 @@
         <v>483217</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H18" s="7">
         <v>633</v>
@@ -2353,13 +2383,13 @@
         <v>647312</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M18" s="7">
         <v>1135</v>
@@ -2368,10 +2398,10 @@
         <v>1130529</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>69</v>
@@ -2430,7 +2460,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2449,7 +2479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2E63DF-C273-4490-BDD4-B91A92B1697D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8241DA45-8A18-4E6E-8EB4-64A93ECB138F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2466,7 +2496,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2573,13 +2603,13 @@
         <v>14009</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H4" s="7">
         <v>29</v>
@@ -2588,13 +2618,13 @@
         <v>32383</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -2603,13 +2633,13 @@
         <v>46391</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,13 +2654,13 @@
         <v>23229</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H5" s="7">
         <v>60</v>
@@ -2639,13 +2669,13 @@
         <v>65432</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M5" s="7">
         <v>80</v>
@@ -2654,13 +2684,13 @@
         <v>88661</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,13 +2705,13 @@
         <v>377160</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H6" s="7">
         <v>507</v>
@@ -2690,13 +2720,13 @@
         <v>536731</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M6" s="7">
         <v>853</v>
@@ -2705,13 +2735,13 @@
         <v>913890</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,13 +2809,13 @@
         <v>2027</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2794,13 +2824,13 @@
         <v>2424</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -2809,13 +2839,13 @@
         <v>4451</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,13 +2860,13 @@
         <v>5082</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2845,13 +2875,13 @@
         <v>986</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -2860,13 +2890,13 @@
         <v>6069</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,13 +2911,13 @@
         <v>111556</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
@@ -2896,13 +2926,13 @@
         <v>79664</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M10" s="7">
         <v>172</v>
@@ -2911,13 +2941,13 @@
         <v>191220</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2991,7 +3021,7 @@
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3006,7 +3036,7 @@
         <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3021,7 +3051,7 @@
         <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3066,13 @@
         <v>986</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3051,13 +3081,13 @@
         <v>3315</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -3066,13 +3096,13 @@
         <v>4300</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,10 +3117,10 @@
         <v>25589</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>57</v>
@@ -3102,13 +3132,13 @@
         <v>18931</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M14" s="7">
         <v>35</v>
@@ -3117,13 +3147,13 @@
         <v>44521</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3221,13 @@
         <v>16035</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -3206,13 +3236,13 @@
         <v>34807</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -3221,13 +3251,13 @@
         <v>50842</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3272,13 @@
         <v>29297</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H17" s="7">
         <v>64</v>
@@ -3257,13 +3287,13 @@
         <v>69733</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M17" s="7">
         <v>90</v>
@@ -3272,13 +3302,13 @@
         <v>99030</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3323,13 @@
         <v>514305</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H18" s="7">
         <v>596</v>
@@ -3308,13 +3338,13 @@
         <v>635326</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M18" s="7">
         <v>1060</v>
@@ -3323,13 +3353,13 @@
         <v>1149630</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,7 +3415,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3404,7 +3434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F88174-6534-4785-8252-CF5A0FFC0E9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F26929-3FF6-4D19-94FA-C5A119C47F05}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3421,7 +3451,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3528,13 +3558,13 @@
         <v>6081</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -3543,10 +3573,10 @@
         <v>20568</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>192</v>
@@ -3558,13 +3588,13 @@
         <v>26648</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>193</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,13 +3609,13 @@
         <v>22453</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
@@ -3594,13 +3624,13 @@
         <v>40951</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M5" s="7">
         <v>56</v>
@@ -3609,13 +3639,13 @@
         <v>63404</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,16 +3657,16 @@
         <v>354</v>
       </c>
       <c r="D6" s="7">
-        <v>325368</v>
+        <v>325367</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H6" s="7">
         <v>424</v>
@@ -3645,13 +3675,13 @@
         <v>493239</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M6" s="7">
         <v>778</v>
@@ -3660,13 +3690,13 @@
         <v>818606</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,7 +3708,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3734,13 +3764,13 @@
         <v>1804</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3755,7 +3785,7 @@
         <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -3764,13 +3794,13 @@
         <v>1804</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,13 +3815,13 @@
         <v>5319</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -3800,13 +3830,13 @@
         <v>8725</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M9" s="7">
         <v>13</v>
@@ -3815,13 +3845,13 @@
         <v>14044</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>71</v>
+        <v>225</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,13 +3866,13 @@
         <v>185409</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H10" s="7">
         <v>150</v>
@@ -3851,13 +3881,13 @@
         <v>179349</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="M10" s="7">
         <v>339</v>
@@ -3866,13 +3896,13 @@
         <v>364758</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,7 +3976,7 @@
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3961,7 +3991,7 @@
         <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3976,7 +4006,7 @@
         <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,7 +4027,7 @@
         <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4006,13 +4036,13 @@
         <v>1376</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -4021,13 +4051,13 @@
         <v>1376</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4045,7 +4075,7 @@
         <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>40</v>
@@ -4057,10 +4087,10 @@
         <v>32298</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>57</v>
@@ -4072,10 +4102,10 @@
         <v>74327</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>57</v>
@@ -4146,13 +4176,13 @@
         <v>7885</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -4161,13 +4191,13 @@
         <v>20568</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -4176,13 +4206,13 @@
         <v>28452</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>71</v>
+        <v>254</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,13 +4227,13 @@
         <v>27772</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>164</v>
+        <v>257</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -4212,13 +4242,13 @@
         <v>51051</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -4227,13 +4257,13 @@
         <v>78823</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,13 +4278,13 @@
         <v>552806</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="H18" s="7">
         <v>599</v>
@@ -4263,13 +4293,13 @@
         <v>704886</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="M18" s="7">
         <v>1183</v>
@@ -4278,13 +4308,13 @@
         <v>1257692</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,7 +4370,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -4359,7 +4389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62679597-6B91-45DA-88D2-1BF22D055EBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659AF75D-357A-48A9-A22A-0D7BAA1B29F0}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4376,7 +4406,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4483,13 +4513,13 @@
         <v>5718</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>75</v>
+        <v>277</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
@@ -4498,13 +4528,13 @@
         <v>22687</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -4513,13 +4543,13 @@
         <v>28405</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,13 +4564,13 @@
         <v>19172</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>276</v>
+        <v>54</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="H5" s="7">
         <v>112</v>
@@ -4549,13 +4579,13 @@
         <v>61390</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>202</v>
+        <v>286</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="M5" s="7">
         <v>144</v>
@@ -4564,13 +4594,13 @@
         <v>80561</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,13 +4615,13 @@
         <v>262583</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>185</v>
+        <v>292</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="H6" s="7">
         <v>866</v>
@@ -4600,13 +4630,13 @@
         <v>470524</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="M6" s="7">
         <v>1253</v>
@@ -4615,13 +4645,13 @@
         <v>733106</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,13 +4719,13 @@
         <v>2382</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>78</v>
+        <v>302</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -4704,13 +4734,13 @@
         <v>957</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -4719,13 +4749,13 @@
         <v>3339</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>295</v>
+        <v>12</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,13 +4770,13 @@
         <v>8556</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>215</v>
+        <v>308</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -4755,13 +4785,13 @@
         <v>11827</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>311</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="M9" s="7">
         <v>35</v>
@@ -4770,13 +4800,13 @@
         <v>20382</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>247</v>
+        <v>314</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>303</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,13 +4821,13 @@
         <v>283628</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>315</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="H10" s="7">
         <v>504</v>
@@ -4806,13 +4836,13 @@
         <v>373638</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="M10" s="7">
         <v>915</v>
@@ -4821,13 +4851,13 @@
         <v>657266</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>31</v>
+        <v>321</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,7 +4931,7 @@
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>309</v>
+        <v>219</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4916,7 +4946,7 @@
         <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4931,7 +4961,7 @@
         <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,13 +4976,13 @@
         <v>2403</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>312</v>
+        <v>71</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4961,13 +4991,13 @@
         <v>468</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>314</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -4976,13 +5006,13 @@
         <v>2872</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4997,13 +5027,13 @@
         <v>109583</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="H14" s="7">
         <v>151</v>
@@ -5012,10 +5042,10 @@
         <v>77777</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>57</v>
@@ -5027,13 +5057,13 @@
         <v>187359</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,13 +5131,13 @@
         <v>8100</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>328</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -5116,13 +5146,13 @@
         <v>23644</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -5131,13 +5161,13 @@
         <v>31744</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>243</v>
+        <v>339</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>76</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,13 +5182,13 @@
         <v>30131</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="H17" s="7">
         <v>136</v>
@@ -5167,13 +5197,13 @@
         <v>73684</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>258</v>
+        <v>344</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="M17" s="7">
         <v>183</v>
@@ -5182,13 +5212,13 @@
         <v>103815</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5203,13 +5233,13 @@
         <v>655793</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="H18" s="7">
         <v>1521</v>
@@ -5218,13 +5248,13 @@
         <v>921939</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="M18" s="7">
         <v>2484</v>
@@ -5233,13 +5263,13 @@
         <v>1577733</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>346</v>
+        <v>269</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,7 +5325,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5413-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5413-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D44F63D4-1774-4279-B9DA-7A1A8D08700B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAEF1DDC-56F4-464A-A196-24B8514A1FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{92818D22-640B-489C-BE89-C3EA3000DFC4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CBC284CD-44C7-451F-AB19-FBBF1FBD9D96}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="359">
   <si>
     <t>Población según si es capaz de vestirse solo en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,948 +77,957 @@
     <t>1,24%</t>
   </si>
   <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>Con ayuda</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>Con ayuda</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
     <t>97,85%</t>
   </si>
   <si>
@@ -1067,9 +1076,6 @@
     <t>4,34%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
     <t>5,82%</t>
   </si>
   <si>
@@ -1080,9 +1086,6 @@
   </si>
   <si>
     <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
   </si>
   <si>
     <t>4,85%</t>
@@ -1524,7 +1527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D056C0C6-48D6-46C1-8EAF-89E4CAD07EB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC215FD-A2B4-400F-BD02-ED5B60C6DB6D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1762,7 +1765,7 @@
         <v>548</v>
       </c>
       <c r="I6" s="7">
-        <v>560274</v>
+        <v>560275</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1813,7 +1816,7 @@
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587749</v>
+        <v>587750</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2284,10 +2287,10 @@
         <v>44</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -2296,13 +2299,13 @@
         <v>19061</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,10 +2323,10 @@
         <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -2332,13 +2335,13 @@
         <v>15109</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -2347,13 +2350,13 @@
         <v>29718</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2368,13 +2371,13 @@
         <v>483217</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H18" s="7">
         <v>633</v>
@@ -2383,13 +2386,13 @@
         <v>647312</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M18" s="7">
         <v>1135</v>
@@ -2398,13 +2401,13 @@
         <v>1130529</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2460,7 +2463,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2479,7 +2482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8241DA45-8A18-4E6E-8EB4-64A93ECB138F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF53ED5-DF58-4C7E-B9CB-1BA960261F0C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2496,7 +2499,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2603,13 +2606,13 @@
         <v>14009</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H4" s="7">
         <v>29</v>
@@ -2618,13 +2621,13 @@
         <v>32383</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -2633,13 +2636,13 @@
         <v>46391</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,13 +2657,13 @@
         <v>23229</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H5" s="7">
         <v>60</v>
@@ -2669,13 +2672,13 @@
         <v>65432</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M5" s="7">
         <v>80</v>
@@ -2684,13 +2687,13 @@
         <v>88661</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2708,13 @@
         <v>377160</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H6" s="7">
         <v>507</v>
@@ -2720,13 +2723,13 @@
         <v>536731</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M6" s="7">
         <v>853</v>
@@ -2735,13 +2738,13 @@
         <v>913890</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2809,13 +2812,13 @@
         <v>2027</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2824,13 +2827,13 @@
         <v>2424</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -2839,13 +2842,13 @@
         <v>4451</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,13 +2863,13 @@
         <v>5082</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2875,13 +2878,13 @@
         <v>986</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -2890,13 +2893,13 @@
         <v>6069</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,13 +2914,13 @@
         <v>111556</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
@@ -2926,13 +2929,13 @@
         <v>79664</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M10" s="7">
         <v>172</v>
@@ -2941,13 +2944,13 @@
         <v>191220</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,7 +3024,7 @@
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3036,7 +3039,7 @@
         <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3051,7 +3054,7 @@
         <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,13 +3069,13 @@
         <v>986</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3081,13 +3084,13 @@
         <v>3315</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -3096,13 +3099,13 @@
         <v>4300</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,10 +3120,10 @@
         <v>25589</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>57</v>
@@ -3132,13 +3135,13 @@
         <v>18931</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M14" s="7">
         <v>35</v>
@@ -3147,13 +3150,13 @@
         <v>44521</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,13 +3224,13 @@
         <v>16035</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -3236,13 +3239,13 @@
         <v>34807</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -3251,13 +3254,13 @@
         <v>50842</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,13 +3275,13 @@
         <v>29297</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H17" s="7">
         <v>64</v>
@@ -3287,13 +3290,13 @@
         <v>69733</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M17" s="7">
         <v>90</v>
@@ -3302,13 +3305,13 @@
         <v>99030</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,13 +3326,13 @@
         <v>514305</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H18" s="7">
         <v>596</v>
@@ -3338,13 +3341,13 @@
         <v>635326</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M18" s="7">
         <v>1060</v>
@@ -3353,13 +3356,13 @@
         <v>1149630</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,7 +3418,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3434,7 +3437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F26929-3FF6-4D19-94FA-C5A119C47F05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D959F244-A3C6-4B4E-ADA3-43BFAF5855D8}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3451,7 +3454,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3558,13 +3561,13 @@
         <v>6081</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -3573,13 +3576,13 @@
         <v>20568</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -3588,13 +3591,13 @@
         <v>26648</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,13 +3612,13 @@
         <v>22453</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
@@ -3624,13 +3627,13 @@
         <v>40951</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M5" s="7">
         <v>56</v>
@@ -3639,13 +3642,13 @@
         <v>63404</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,16 +3660,16 @@
         <v>354</v>
       </c>
       <c r="D6" s="7">
-        <v>325367</v>
+        <v>325368</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H6" s="7">
         <v>424</v>
@@ -3675,13 +3678,13 @@
         <v>493239</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M6" s="7">
         <v>778</v>
@@ -3690,13 +3693,13 @@
         <v>818606</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,7 +3711,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353901</v>
+        <v>353902</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3764,13 +3767,13 @@
         <v>1804</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3785,7 +3788,7 @@
         <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -3794,13 +3797,13 @@
         <v>1804</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3818,13 @@
         <v>5319</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -3830,13 +3833,13 @@
         <v>8725</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>221</v>
+        <v>152</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M9" s="7">
         <v>13</v>
@@ -3845,13 +3848,13 @@
         <v>14044</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,13 +3869,13 @@
         <v>185409</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H10" s="7">
         <v>150</v>
@@ -3881,7 +3884,7 @@
         <v>179349</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>230</v>
+        <v>161</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>231</v>
@@ -4260,10 +4263,10 @@
         <v>263</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,13 +4281,13 @@
         <v>552806</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H18" s="7">
         <v>599</v>
@@ -4293,13 +4296,13 @@
         <v>704886</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M18" s="7">
         <v>1183</v>
@@ -4308,13 +4311,13 @@
         <v>1257692</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4370,7 +4373,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4389,7 +4392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659AF75D-357A-48A9-A22A-0D7BAA1B29F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28FCDB8-4808-4FCE-99B6-BC9392243289}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4406,7 +4409,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4513,13 +4516,13 @@
         <v>5718</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
@@ -4534,7 +4537,7 @@
         <v>27</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -4543,13 +4546,13 @@
         <v>28405</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,10 +4567,10 @@
         <v>19172</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>284</v>
@@ -4725,7 +4728,7 @@
         <v>301</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>302</v>
+        <v>195</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -4734,13 +4737,13 @@
         <v>957</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -4749,7 +4752,7 @@
         <v>3339</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>305</v>
@@ -4800,13 +4803,13 @@
         <v>20382</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>314</v>
-      </c>
       <c r="Q9" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +4824,13 @@
         <v>283628</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H10" s="7">
         <v>504</v>
@@ -4836,13 +4839,13 @@
         <v>373638</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M10" s="7">
         <v>915</v>
@@ -4851,13 +4854,13 @@
         <v>657266</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,7 +4934,7 @@
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>219</v>
+        <v>322</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4976,7 +4979,7 @@
         <v>2403</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>305</v>
@@ -4997,7 +5000,7 @@
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>256</v>
+        <v>326</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -5006,13 +5009,13 @@
         <v>2872</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>264</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,13 +5030,13 @@
         <v>109583</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H14" s="7">
         <v>151</v>
@@ -5042,10 +5045,10 @@
         <v>77777</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>57</v>
@@ -5057,13 +5060,13 @@
         <v>187359</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,10 +5134,10 @@
         <v>8100</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>254</v>
@@ -5146,13 +5149,13 @@
         <v>23644</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>308</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -5161,13 +5164,13 @@
         <v>31744</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,13 +5185,13 @@
         <v>30131</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>342</v>
+        <v>256</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H17" s="7">
         <v>136</v>
@@ -5197,13 +5200,13 @@
         <v>73684</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M17" s="7">
         <v>183</v>
@@ -5212,13 +5215,13 @@
         <v>103815</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>347</v>
+        <v>227</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,13 +5236,13 @@
         <v>655793</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H18" s="7">
         <v>1521</v>
@@ -5248,13 +5251,13 @@
         <v>921939</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M18" s="7">
         <v>2484</v>
@@ -5263,13 +5266,13 @@
         <v>1577733</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,7 +5328,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5413-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5413-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAEF1DDC-56F4-464A-A196-24B8514A1FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3521664-C374-4010-891D-D3F99447BC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CBC284CD-44C7-451F-AB19-FBBF1FBD9D96}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{584731FC-6F13-41A6-8549-8D1311832126}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="348">
   <si>
     <t>Población según si es capaz de vestirse solo en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -89,1033 +89,1000 @@
     <t>1,21%</t>
   </si>
   <si>
-    <t>3,76%</t>
+    <t>3,84%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>1,12%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>Con ayuda</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>Con ayuda</t>
-  </si>
-  <si>
-    <t>3,7%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
   </si>
   <si>
     <t>6,06%</t>
   </si>
   <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
+    <t>7,1%</t>
   </si>
   <si>
     <t>94,49%</t>
   </si>
   <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
+    <t>95,81%</t>
   </si>
   <si>
     <t>90,45%</t>
   </si>
   <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
   </si>
   <si>
     <t>92,09%</t>
   </si>
   <si>
-    <t>93,64%</t>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
   </si>
 </sst>
 </file>
@@ -1527,7 +1494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC215FD-A2B4-400F-BD02-ED5B60C6DB6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE886EF0-A815-4E85-ABDA-D4127CEDD700}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2287,10 +2254,10 @@
         <v>44</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -2299,13 +2266,13 @@
         <v>19061</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,10 +2290,10 @@
         <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -2407,7 +2374,7 @@
         <v>91</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,7 +2430,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2482,7 +2449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF53ED5-DF58-4C7E-B9CB-1BA960261F0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1567DDA5-41B0-4A9B-857A-C5C01F98CFB4}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2499,7 +2466,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2606,13 +2573,13 @@
         <v>14009</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H4" s="7">
         <v>29</v>
@@ -2621,13 +2588,13 @@
         <v>32383</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -2636,13 +2603,13 @@
         <v>46391</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,13 +2624,13 @@
         <v>23229</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H5" s="7">
         <v>60</v>
@@ -2672,13 +2639,13 @@
         <v>65432</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M5" s="7">
         <v>80</v>
@@ -2687,13 +2654,13 @@
         <v>88661</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,13 +2675,13 @@
         <v>377160</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H6" s="7">
         <v>507</v>
@@ -2723,13 +2690,13 @@
         <v>536731</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M6" s="7">
         <v>853</v>
@@ -2738,13 +2705,13 @@
         <v>913890</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2812,13 +2779,13 @@
         <v>2027</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2827,13 +2794,13 @@
         <v>2424</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -2842,13 +2809,13 @@
         <v>4451</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2863,13 +2830,13 @@
         <v>5082</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2878,13 +2845,13 @@
         <v>986</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -2893,13 +2860,13 @@
         <v>6069</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,13 +2881,13 @@
         <v>111556</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
@@ -2929,13 +2896,13 @@
         <v>79664</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M10" s="7">
         <v>172</v>
@@ -2944,13 +2911,13 @@
         <v>191220</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,7 +2991,7 @@
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3039,7 +3006,7 @@
         <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3054,7 +3021,7 @@
         <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,13 +3036,13 @@
         <v>986</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3084,13 +3051,13 @@
         <v>3315</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -3099,13 +3066,13 @@
         <v>4300</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,10 +3087,10 @@
         <v>25589</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>57</v>
@@ -3135,13 +3102,13 @@
         <v>18931</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M14" s="7">
         <v>35</v>
@@ -3150,13 +3117,13 @@
         <v>44521</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,13 +3191,13 @@
         <v>16035</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -3239,13 +3206,13 @@
         <v>34807</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -3254,13 +3221,13 @@
         <v>50842</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,13 +3242,13 @@
         <v>29297</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H17" s="7">
         <v>64</v>
@@ -3290,13 +3257,13 @@
         <v>69733</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M17" s="7">
         <v>90</v>
@@ -3305,13 +3272,13 @@
         <v>99030</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,13 +3293,13 @@
         <v>514305</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="H18" s="7">
         <v>596</v>
@@ -3341,13 +3308,13 @@
         <v>635326</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M18" s="7">
         <v>1060</v>
@@ -3356,13 +3323,13 @@
         <v>1149630</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,7 +3385,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3437,7 +3404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D959F244-A3C6-4B4E-ADA3-43BFAF5855D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48068E5-023C-4F50-898B-7CA34F87749B}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3454,7 +3421,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3561,13 +3528,13 @@
         <v>6081</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -3576,13 +3543,13 @@
         <v>20568</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -3591,13 +3558,13 @@
         <v>26648</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>196</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,13 +3579,13 @@
         <v>22453</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
@@ -3627,13 +3594,13 @@
         <v>40951</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M5" s="7">
         <v>56</v>
@@ -3642,13 +3609,13 @@
         <v>63404</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,13 +3630,13 @@
         <v>325368</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H6" s="7">
         <v>424</v>
@@ -3678,13 +3645,13 @@
         <v>493239</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M6" s="7">
         <v>778</v>
@@ -3693,13 +3660,13 @@
         <v>818606</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,13 +3734,13 @@
         <v>1804</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3797,13 +3764,13 @@
         <v>1804</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,13 +3785,13 @@
         <v>5319</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>221</v>
+        <v>130</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -3833,13 +3800,13 @@
         <v>8725</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M9" s="7">
         <v>13</v>
@@ -3848,13 +3815,13 @@
         <v>14044</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>226</v>
+        <v>71</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,13 +3836,13 @@
         <v>185409</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H10" s="7">
         <v>150</v>
@@ -3884,13 +3851,13 @@
         <v>179349</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>339</v>
@@ -3899,13 +3866,13 @@
         <v>364758</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,7 +3946,7 @@
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3994,7 +3961,7 @@
         <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4009,7 +3976,7 @@
         <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,7 +3997,7 @@
         <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4039,13 +4006,13 @@
         <v>1376</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -4054,13 +4021,13 @@
         <v>1376</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,7 +4045,7 @@
         <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>40</v>
@@ -4090,10 +4057,10 @@
         <v>32298</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>57</v>
@@ -4105,10 +4072,10 @@
         <v>74327</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>57</v>
@@ -4179,13 +4146,13 @@
         <v>7885</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -4194,13 +4161,13 @@
         <v>20568</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -4209,13 +4176,13 @@
         <v>28452</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>254</v>
+        <v>71</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4230,13 +4197,13 @@
         <v>27772</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>257</v>
+        <v>164</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -4245,13 +4212,13 @@
         <v>51051</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -4260,13 +4227,13 @@
         <v>78823</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,13 +4248,13 @@
         <v>552806</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H18" s="7">
         <v>599</v>
@@ -4296,13 +4263,13 @@
         <v>704886</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M18" s="7">
         <v>1183</v>
@@ -4311,13 +4278,13 @@
         <v>1257692</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,7 +4340,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4392,7 +4359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28FCDB8-4808-4FCE-99B6-BC9392243289}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6915C503-D50E-45D0-9C76-DF4B45F5C20C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4409,7 +4376,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4516,13 +4483,13 @@
         <v>5718</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>276</v>
+        <v>75</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
@@ -4531,13 +4498,13 @@
         <v>22687</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -4546,13 +4513,13 @@
         <v>28405</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,13 +4534,13 @@
         <v>19172</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="H5" s="7">
         <v>112</v>
@@ -4582,13 +4549,13 @@
         <v>61390</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>286</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="M5" s="7">
         <v>144</v>
@@ -4597,13 +4564,13 @@
         <v>80561</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4618,13 +4585,13 @@
         <v>262583</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>292</v>
+        <v>185</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="H6" s="7">
         <v>866</v>
@@ -4633,13 +4600,13 @@
         <v>470524</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="M6" s="7">
         <v>1253</v>
@@ -4648,13 +4615,13 @@
         <v>733106</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4689,13 @@
         <v>2382</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -4737,13 +4704,13 @@
         <v>957</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -4752,13 +4719,13 @@
         <v>3339</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,13 +4740,13 @@
         <v>8556</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>308</v>
+        <v>215</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -4788,13 +4755,13 @@
         <v>11827</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>311</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="M9" s="7">
         <v>35</v>
@@ -4803,13 +4770,13 @@
         <v>20382</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>302</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>313</v>
+        <v>247</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>129</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,13 +4791,13 @@
         <v>283628</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>314</v>
+        <v>38</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="H10" s="7">
         <v>504</v>
@@ -4839,13 +4806,13 @@
         <v>373638</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="M10" s="7">
         <v>915</v>
@@ -4854,13 +4821,13 @@
         <v>657266</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>320</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>321</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,7 +4901,7 @@
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4949,7 +4916,7 @@
         <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4964,7 +4931,7 @@
         <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +4946,13 @@
         <v>2403</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>312</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4994,13 +4961,13 @@
         <v>468</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -5009,13 +4976,13 @@
         <v>2872</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,13 +4997,13 @@
         <v>109583</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="H14" s="7">
         <v>151</v>
@@ -5045,10 +5012,10 @@
         <v>77777</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>57</v>
@@ -5060,13 +5027,13 @@
         <v>187359</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,13 +5101,13 @@
         <v>8100</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>254</v>
+        <v>328</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -5149,13 +5116,13 @@
         <v>23644</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -5164,13 +5131,13 @@
         <v>31744</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>342</v>
+        <v>243</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>343</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,13 +5152,13 @@
         <v>30131</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>256</v>
+        <v>334</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="H17" s="7">
         <v>136</v>
@@ -5200,13 +5167,13 @@
         <v>73684</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="M17" s="7">
         <v>183</v>
@@ -5215,13 +5182,13 @@
         <v>103815</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>338</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>349</v>
+        <v>301</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,13 +5203,13 @@
         <v>655793</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="H18" s="7">
         <v>1521</v>
@@ -5251,13 +5218,13 @@
         <v>921939</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="M18" s="7">
         <v>2484</v>
@@ -5266,13 +5233,13 @@
         <v>1577733</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>268</v>
+        <v>346</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,7 +5295,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5413-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5413-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3521664-C374-4010-891D-D3F99447BC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A204A39-14EE-47B3-A70F-2E02EA11AC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{584731FC-6F13-41A6-8549-8D1311832126}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B94606B5-C3A3-420E-B4F5-8C62E41C3AA6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="355">
   <si>
     <t>Población según si es capaz de vestirse solo en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -848,70 +848,76 @@
     <t>Población según si es capaz de vestirse solo en 2023 (Tasa respuesta: 31,25%)</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
   </si>
   <si>
     <t>0,81%</t>
@@ -920,169 +926,184 @@
     <t>0,23%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
   </si>
   <si>
     <t>95,81%</t>
   </si>
   <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE886EF0-A815-4E85-ABDA-D4127CEDD700}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FF84C0-66CD-4B37-B133-8D202AD59DB3}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1732,7 +1753,7 @@
         <v>548</v>
       </c>
       <c r="I6" s="7">
-        <v>560275</v>
+        <v>560274</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1783,7 +1804,7 @@
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2449,7 +2470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1567DDA5-41B0-4A9B-857A-C5C01F98CFB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA55424-97DB-402C-948A-FAB151D9B489}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3404,7 +3425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48068E5-023C-4F50-898B-7CA34F87749B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4D042D-1E2D-41B7-8D6B-A5D55DAA9A6C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3627,7 +3648,7 @@
         <v>354</v>
       </c>
       <c r="D6" s="7">
-        <v>325368</v>
+        <v>325367</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>203</v>
@@ -3678,7 +3699,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4359,7 +4380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6915C503-D50E-45D0-9C76-DF4B45F5C20C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FF9826-E05A-45BC-B06C-D2721D25100C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4480,46 +4501,46 @@
         <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>5718</v>
+        <v>5412</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>269</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
       </c>
       <c r="I4" s="7">
-        <v>22687</v>
+        <v>20280</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>122</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
       </c>
       <c r="N4" s="7">
-        <v>28405</v>
+        <v>25692</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,46 +4552,46 @@
         <v>32</v>
       </c>
       <c r="D5" s="7">
-        <v>19172</v>
+        <v>17988</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H5" s="7">
         <v>112</v>
       </c>
       <c r="I5" s="7">
-        <v>61390</v>
+        <v>54571</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>202</v>
+        <v>280</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M5" s="7">
         <v>144</v>
       </c>
       <c r="N5" s="7">
-        <v>80561</v>
+        <v>72559</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,46 +4603,46 @@
         <v>387</v>
       </c>
       <c r="D6" s="7">
-        <v>262583</v>
+        <v>245844</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>185</v>
+        <v>285</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H6" s="7">
         <v>866</v>
       </c>
       <c r="I6" s="7">
-        <v>470524</v>
+        <v>425057</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M6" s="7">
         <v>1253</v>
       </c>
       <c r="N6" s="7">
-        <v>733106</v>
+        <v>670901</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,7 +4654,7 @@
         <v>428</v>
       </c>
       <c r="D7" s="7">
-        <v>287472</v>
+        <v>269244</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4648,7 +4669,7 @@
         <v>1017</v>
       </c>
       <c r="I7" s="7">
-        <v>554601</v>
+        <v>499908</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4663,7 +4684,7 @@
         <v>1445</v>
       </c>
       <c r="N7" s="7">
-        <v>842072</v>
+        <v>769152</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4686,46 +4707,46 @@
         <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>2382</v>
+        <v>2211</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>78</v>
+        <v>295</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>957</v>
+        <v>865</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
       </c>
       <c r="N8" s="7">
-        <v>3339</v>
+        <v>3076</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,46 +4758,46 @@
         <v>12</v>
       </c>
       <c r="D9" s="7">
-        <v>8556</v>
+        <v>7818</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>215</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
       </c>
       <c r="I9" s="7">
-        <v>11827</v>
+        <v>10671</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>303</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M9" s="7">
         <v>35</v>
       </c>
       <c r="N9" s="7">
-        <v>20382</v>
+        <v>18488</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>247</v>
+        <v>306</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>303</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,46 +4809,46 @@
         <v>411</v>
       </c>
       <c r="D10" s="7">
-        <v>283628</v>
+        <v>263229</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>154</v>
+        <v>307</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>308</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H10" s="7">
         <v>504</v>
       </c>
       <c r="I10" s="7">
-        <v>373638</v>
+        <v>444203</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>305</v>
+        <v>137</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="M10" s="7">
         <v>915</v>
       </c>
       <c r="N10" s="7">
-        <v>657266</v>
+        <v>707432</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>31</v>
+        <v>313</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,7 +4860,7 @@
         <v>426</v>
       </c>
       <c r="D11" s="7">
-        <v>294566</v>
+        <v>273257</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -4854,7 +4875,7 @@
         <v>529</v>
       </c>
       <c r="I11" s="7">
-        <v>386422</v>
+        <v>455739</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -4869,7 +4890,7 @@
         <v>955</v>
       </c>
       <c r="N11" s="7">
-        <v>680988</v>
+        <v>728996</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -4901,7 +4922,7 @@
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4916,7 +4937,7 @@
         <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4931,7 +4952,7 @@
         <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,46 +4964,46 @@
         <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>2403</v>
+        <v>2066</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>468</v>
+        <v>435</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>2872</v>
+        <v>2501</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>315</v>
+        <v>25</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,28 +5015,28 @@
         <v>165</v>
       </c>
       <c r="D14" s="7">
-        <v>109583</v>
+        <v>102920</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="H14" s="7">
         <v>151</v>
       </c>
       <c r="I14" s="7">
-        <v>77777</v>
+        <v>70890</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>57</v>
@@ -5024,16 +5045,16 @@
         <v>316</v>
       </c>
       <c r="N14" s="7">
-        <v>187359</v>
+        <v>173810</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,7 +5066,7 @@
         <v>168</v>
       </c>
       <c r="D15" s="7">
-        <v>111986</v>
+        <v>104986</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5060,7 +5081,7 @@
         <v>152</v>
       </c>
       <c r="I15" s="7">
-        <v>78245</v>
+        <v>71325</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5075,7 +5096,7 @@
         <v>320</v>
       </c>
       <c r="N15" s="7">
-        <v>190231</v>
+        <v>176311</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5098,46 +5119,46 @@
         <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>8100</v>
+        <v>7623</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
       </c>
       <c r="I16" s="7">
-        <v>23644</v>
+        <v>21145</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>331</v>
+        <v>132</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
       </c>
       <c r="N16" s="7">
-        <v>31744</v>
+        <v>28768</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>332</v>
+        <v>189</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>243</v>
+        <v>338</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>76</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,46 +5170,46 @@
         <v>47</v>
       </c>
       <c r="D17" s="7">
-        <v>30131</v>
+        <v>27872</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>335</v>
+        <v>23</v>
       </c>
       <c r="H17" s="7">
         <v>136</v>
       </c>
       <c r="I17" s="7">
-        <v>73684</v>
+        <v>65677</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>258</v>
+        <v>341</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="M17" s="7">
         <v>183</v>
       </c>
       <c r="N17" s="7">
-        <v>103815</v>
+        <v>93549</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,46 +5221,46 @@
         <v>963</v>
       </c>
       <c r="D18" s="7">
-        <v>655793</v>
+        <v>611992</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="H18" s="7">
         <v>1521</v>
       </c>
       <c r="I18" s="7">
-        <v>921939</v>
+        <v>940150</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="M18" s="7">
         <v>2484</v>
       </c>
       <c r="N18" s="7">
-        <v>1577733</v>
+        <v>1552142</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>346</v>
+        <v>284</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,7 +5272,7 @@
         <v>1022</v>
       </c>
       <c r="D19" s="7">
-        <v>694024</v>
+        <v>647487</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5266,7 +5287,7 @@
         <v>1698</v>
       </c>
       <c r="I19" s="7">
-        <v>1019268</v>
+        <v>1026972</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5281,7 +5302,7 @@
         <v>2720</v>
       </c>
       <c r="N19" s="7">
-        <v>1713292</v>
+        <v>1674459</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
